--- a/data/n2v/tables/model-1200-1325-20230828-17.xlsx
+++ b/data/n2v/tables/model-1200-1325-20230828-17.xlsx
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3574,7 +3574,7 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3700,7 +3700,7 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3916,7 +3916,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4726,7 +4726,7 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4906,7 +4906,7 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -5014,7 +5014,7 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5068,7 +5068,7 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5176,7 +5176,7 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5338,7 +5338,7 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5788,7 +5788,7 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5914,7 +5914,7 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -6220,7 +6220,7 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -6274,7 +6274,7 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -6310,7 +6310,7 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -6418,7 +6418,7 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -6562,7 +6562,7 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -6814,7 +6814,7 @@
         </is>
       </c>
       <c r="C355" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -6868,7 +6868,7 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         </is>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -7066,7 +7066,7 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -7300,7 +7300,7 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -7534,7 +7534,7 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -7588,7 +7588,7 @@
         </is>
       </c>
       <c r="C398" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -7660,7 +7660,7 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -7750,7 +7750,7 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -7894,7 +7894,7 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -7930,7 +7930,7 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         </is>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
